--- a/WBS.xlsx
+++ b/WBS.xlsx
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mypc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8AC38BD-EB84-4A85-876B-C0B2B1BD3B1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B1D4C0-57BD-4DBA-A437-B8558D6298D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="78">
   <si>
     <t>구분</t>
   </si>
@@ -285,6 +293,18 @@
   </si>
   <si>
     <t xml:space="preserve"> ALL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -517,6 +537,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -534,24 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,7 +1082,7 @@
   <dimension ref="B2:Y45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1089,113 +1109,113 @@
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="17"/>
     </row>
     <row r="3" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="18">
         <v>44659</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="17"/>
     </row>
     <row r="4" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>44718</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="17"/>
     </row>
     <row r="5" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="17"/>
     </row>
     <row r="6" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="19">
         <v>44655</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="2:25" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="17">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="17"/>
     </row>
     <row r="10" spans="2:25" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="22" t="s">
+      <c r="F10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="24" t="s">
         <v>25</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="17" t="s">
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17" t="s">
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17" t="s">
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="X10" s="17"/>
+      <c r="X10" s="23"/>
     </row>
     <row r="11" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="25"/>
       <c r="I11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1247,13 +1267,13 @@
       <c r="Y11" s="5"/>
     </row>
     <row r="12" spans="2:25" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="26"/>
       <c r="I12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1310,15 +1330,19 @@
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
       <c r="G13" s="8">
         <v>7</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="26"/>
+      <c r="J13" s="16"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1334,15 +1358,19 @@
         <v>50</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="E14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1</v>
+      </c>
       <c r="G14" s="8">
         <v>7</v>
       </c>
       <c r="H14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J14" s="25"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1358,8 +1386,12 @@
       <c r="D15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1</v>
+      </c>
       <c r="G15" s="8">
         <v>4</v>
       </c>
@@ -1382,8 +1414,12 @@
       <c r="D16" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1</v>
+      </c>
       <c r="G16" s="8">
         <v>3</v>
       </c>
@@ -1406,8 +1442,13 @@
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="9">
+        <f>(F$19+F$20)/2</f>
+        <v>0.35</v>
+      </c>
       <c r="G17" s="8">
         <v>56</v>
       </c>
@@ -1415,14 +1456,14 @@
         <v>72</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
@@ -1432,8 +1473,13 @@
         <v>52</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="E18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="9">
+        <f>(F$19+F$20)/2</f>
+        <v>0.35</v>
+      </c>
       <c r="G18" s="8">
         <v>56</v>
       </c>
@@ -1441,14 +1487,14 @@
         <v>72</v>
       </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="25"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
@@ -1458,8 +1504,12 @@
       <c r="D19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="E19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.4</v>
+      </c>
       <c r="G19" s="8">
         <v>21</v>
       </c>
@@ -1484,8 +1534,12 @@
       <c r="D20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="E20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.3</v>
+      </c>
       <c r="G20" s="8">
         <v>35</v>
       </c>
@@ -1510,8 +1564,13 @@
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="9">
+        <f>(F23+F24+F25+F26+F28+F29+F31+F32)/8</f>
+        <v>0.35</v>
+      </c>
       <c r="G21" s="8">
         <v>56</v>
       </c>
@@ -1519,14 +1578,14 @@
         <v>73</v>
       </c>
       <c r="J21" s="1"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
     </row>
@@ -1536,8 +1595,13 @@
         <v>58</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="9">
+        <f>(F23+F24+F25+F26)/4</f>
+        <v>0.5</v>
+      </c>
       <c r="G22" s="8">
         <v>28</v>
       </c>
@@ -1545,10 +1609,10 @@
         <v>73</v>
       </c>
       <c r="J22" s="1"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -1562,8 +1626,12 @@
       <c r="D23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0</v>
+      </c>
       <c r="G23" s="8">
         <v>7</v>
       </c>
@@ -1586,8 +1654,12 @@
       <c r="D24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.7</v>
+      </c>
       <c r="G24" s="8">
         <v>7</v>
       </c>
@@ -1610,8 +1682,12 @@
       <c r="D25" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.8</v>
+      </c>
       <c r="G25" s="8">
         <v>7</v>
       </c>
@@ -1634,8 +1710,12 @@
       <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G26" s="8">
         <v>7</v>
       </c>
@@ -1658,8 +1738,13 @@
         <v>62</v>
       </c>
       <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="9">
+        <f>(F28+F29)/2</f>
+        <v>0.15</v>
+      </c>
       <c r="G27" s="8">
         <v>14</v>
       </c>
@@ -1671,8 +1756,8 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
@@ -1682,8 +1767,12 @@
       <c r="D28" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
       <c r="G28" s="8">
         <v>7</v>
       </c>
@@ -1706,8 +1795,12 @@
       <c r="D29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="9">
+        <v>0.3</v>
+      </c>
       <c r="G29" s="8">
         <v>7</v>
       </c>
@@ -1730,8 +1823,13 @@
         <v>65</v>
       </c>
       <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="9">
+        <f>(F31+F32)/2</f>
+        <v>0.25</v>
+      </c>
       <c r="G30" s="8">
         <v>14</v>
       </c>
@@ -1745,8 +1843,8 @@
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
     </row>
     <row r="31" spans="2:20" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="7"/>
@@ -1754,8 +1852,12 @@
       <c r="D31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
       <c r="G31" s="8">
         <v>7</v>
       </c>
@@ -1778,8 +1880,12 @@
       <c r="D32" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.5</v>
+      </c>
       <c r="G32" s="8">
         <v>7</v>
       </c>
@@ -1802,8 +1908,13 @@
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="9">
+        <f>F35</f>
+        <v>0.3</v>
+      </c>
       <c r="G33" s="8">
         <v>14</v>
       </c>
@@ -1819,8 +1930,8 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
     </row>
     <row r="34" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="7"/>
@@ -1828,8 +1939,12 @@
         <v>69</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
+      <c r="E34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="9">
+        <v>0.3</v>
+      </c>
       <c r="G34" s="8">
         <v>14</v>
       </c>
@@ -1845,8 +1960,8 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-      <c r="S34" s="25"/>
-      <c r="T34" s="25"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
     </row>
     <row r="35" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="7"/>
@@ -1854,8 +1969,12 @@
       <c r="D35" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="9"/>
+      <c r="E35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.3</v>
+      </c>
       <c r="G35" s="8">
         <v>14</v>
       </c>
@@ -1880,8 +1999,12 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="9">
+        <v>0</v>
+      </c>
       <c r="G36" s="8">
         <v>21</v>
       </c>
@@ -1897,9 +2020,9 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
-      <c r="W36" s="26"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
     </row>
     <row r="37" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="7"/>
@@ -1907,8 +2030,12 @@
         <v>33</v>
       </c>
       <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="9"/>
+      <c r="E37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0</v>
+      </c>
       <c r="G37" s="8">
         <v>21</v>
       </c>
@@ -1924,9 +2051,9 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
     </row>
     <row r="38" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="7"/>
@@ -1934,8 +2061,12 @@
       <c r="D38" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="9"/>
+      <c r="E38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0</v>
+      </c>
       <c r="G38" s="8">
         <v>7</v>
       </c>
@@ -1961,8 +2092,12 @@
       <c r="D39" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="9"/>
+      <c r="E39" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0</v>
+      </c>
       <c r="G39" s="8">
         <v>7</v>
       </c>
@@ -1988,8 +2123,12 @@
       <c r="D40" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="E40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="9">
+        <v>0</v>
+      </c>
       <c r="G40" s="8">
         <v>7</v>
       </c>
@@ -2015,8 +2154,12 @@
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="9"/>
+      <c r="E41" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="9">
+        <v>0</v>
+      </c>
       <c r="G41" s="8">
         <v>7</v>
       </c>
@@ -2032,7 +2175,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-      <c r="X41" s="26"/>
+      <c r="X41" s="16"/>
     </row>
     <row r="42" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
@@ -2040,8 +2183,12 @@
         <v>54</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="9"/>
+      <c r="E42" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
       <c r="G42" s="8">
         <v>7</v>
       </c>
@@ -2057,7 +2204,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-      <c r="X42" s="25"/>
+      <c r="X42" s="15"/>
     </row>
     <row r="43" spans="2:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
@@ -2065,8 +2212,12 @@
       <c r="D43" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0</v>
+      </c>
       <c r="G43" s="8">
         <v>7</v>
       </c>
@@ -2108,11 +2259,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="W10:X10"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="B10:B12"/>
@@ -2120,11 +2271,11 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="S10:V10"/>
-    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
